--- a/2020/listados/20200430 Listado de medios de comunicacion con estudiantes.xlsx
+++ b/2020/listados/20200430 Listado de medios de comunicacion con estudiantes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\GitHub\liceopatria.github.io\2020\listados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{551BCD1D-EA13-403E-BC63-09E603FF729D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D741C9A2-1DB4-425B-89C7-CEE9F951485C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2775" yWindow="1530" windowWidth="14400" windowHeight="10755" tabRatio="710" firstSheet="6" activeTab="6" xr2:uid="{50E3D567-1B3A-45B1-BFAB-81E44AF5B42C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" tabRatio="710" firstSheet="6" activeTab="8" xr2:uid="{50E3D567-1B3A-45B1-BFAB-81E44AF5B42C}"/>
   </bookViews>
   <sheets>
     <sheet name="Resumen" sheetId="15" r:id="rId1"/>
@@ -16687,7 +16687,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75EE12D0-9DBC-4060-A74D-7E7E6A600169}">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -18206,8 +18206,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:C39"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
